--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pomc-Oprd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Pomc-Oprd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Pomc</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9347220000000002</v>
+        <v>0.5131323333333334</v>
       </c>
       <c r="H2">
-        <v>2.804166</v>
+        <v>1.539397</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9119558630037493</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9119558630037494</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,22 +561,208 @@
         <v>0.064979</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7290280598220596</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.7290280598220598</v>
       </c>
       <c r="Q2">
-        <v>0.020245766946</v>
+        <v>0.01111427529588889</v>
       </c>
       <c r="R2">
-        <v>0.182211902514</v>
+        <v>0.100028477663</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.6648414134489754</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.6648414134489755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.5131323333333334</v>
+      </c>
+      <c r="H3">
+        <v>1.539397</v>
+      </c>
+      <c r="I3">
+        <v>0.9119558630037493</v>
+      </c>
+      <c r="J3">
+        <v>0.9119558630037494</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.008050666666666666</v>
+      </c>
+      <c r="N3">
+        <v>0.024152</v>
+      </c>
+      <c r="O3">
+        <v>0.2709719401779404</v>
+      </c>
+      <c r="P3">
+        <v>0.2709719401779404</v>
+      </c>
+      <c r="Q3">
+        <v>0.004131057371555556</v>
+      </c>
+      <c r="R3">
+        <v>0.037179516344</v>
+      </c>
+      <c r="S3">
+        <v>0.2471144495547739</v>
+      </c>
+      <c r="T3">
+        <v>0.247114449554774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.04954</v>
+      </c>
+      <c r="H4">
+        <v>0.14862</v>
+      </c>
+      <c r="I4">
+        <v>0.08804413699625062</v>
+      </c>
+      <c r="J4">
+        <v>0.08804413699625063</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.02165966666666666</v>
+      </c>
+      <c r="N4">
+        <v>0.064979</v>
+      </c>
+      <c r="O4">
+        <v>0.7290280598220596</v>
+      </c>
+      <c r="P4">
+        <v>0.7290280598220598</v>
+      </c>
+      <c r="Q4">
+        <v>0.001073019886666666</v>
+      </c>
+      <c r="R4">
+        <v>0.00965717898</v>
+      </c>
+      <c r="S4">
+        <v>0.06418664637308422</v>
+      </c>
+      <c r="T4">
+        <v>0.06418664637308423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.04954</v>
+      </c>
+      <c r="H5">
+        <v>0.14862</v>
+      </c>
+      <c r="I5">
+        <v>0.08804413699625062</v>
+      </c>
+      <c r="J5">
+        <v>0.08804413699625063</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.008050666666666666</v>
+      </c>
+      <c r="N5">
+        <v>0.024152</v>
+      </c>
+      <c r="O5">
+        <v>0.2709719401779404</v>
+      </c>
+      <c r="P5">
+        <v>0.2709719401779404</v>
+      </c>
+      <c r="Q5">
+        <v>0.0003988300266666666</v>
+      </c>
+      <c r="R5">
+        <v>0.00358947024</v>
+      </c>
+      <c r="S5">
+        <v>0.02385749062316641</v>
+      </c>
+      <c r="T5">
+        <v>0.02385749062316641</v>
       </c>
     </row>
   </sheetData>
